--- a/visualizations - excel/Labelling.xlsx
+++ b/visualizations - excel/Labelling.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvinus\Documents\UCPH\Thesis\Visualizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvinus\Documents\UCPH\Thesis\blackbox-trading-CNN\visualizations - excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{252EF4C5-FBDD-4A52-B48E-801C259F17D7}" type="CELLRANGE">
+                    <a:fld id="{22EABAF2-64C1-44BA-8506-C1F5EFAC4306}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -600,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3DCC270-32A6-487E-8426-5FC87BCBC37A}" type="CELLRANGE">
+                    <a:fld id="{CE051235-7CC9-42B6-9C77-48EFB9FA3BF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -639,7 +639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05B1BC7D-C5A0-4980-901C-3C0F34A857C6}" type="CELLRANGE">
+                    <a:fld id="{E0DF1A2C-E849-4E68-BFD6-A94D945F34B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -671,7 +671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EF51502-93DD-4BC4-8F9F-E6A2F38DAF81}" type="CELLRANGE">
+                    <a:fld id="{BB804AC4-5F6C-43A5-87C1-D4BE0BE86A29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -704,7 +704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D16BA8D-5B1C-4E6C-ABB2-1E311561CDA5}" type="CELLRANGE">
+                    <a:fld id="{99D64C36-1E4D-4B7D-85CB-29EA89BA70A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -758,7 +758,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E866493E-78C2-472B-8454-2206B2CA68AE}" type="CELLRANGE">
+                    <a:fld id="{7F1C70BD-01DC-4AFD-A6A8-9FBA1762B300}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1400" b="1"/>
@@ -821,7 +821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{661107B9-1577-432C-A24C-AF3EE6B17238}" type="CELLRANGE">
+                    <a:fld id="{EEACD0CB-2033-4ED3-9697-3F41F8C604CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -854,7 +854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{993F00EF-FC9F-412A-B3A7-7858DDA51EA8}" type="CELLRANGE">
+                    <a:fld id="{074B9E77-4409-4B45-83C4-237ADBF02113}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -887,7 +887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{041937DB-6EB2-4794-9D49-A68E431E25D1}" type="CELLRANGE">
+                    <a:fld id="{916D478F-4AA1-4DF8-B1B3-8B600E0FCAA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1402,7 +1402,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1453,7 +1453,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1689,7 +1689,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1740,7 +1740,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1976,7 +1976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2027,7 +2027,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2263,7 +2263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2314,7 +2314,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2452,7 +2452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38E4E561-21FE-4162-B3AC-EC8011CCD99A}" type="CELLRANGE">
+                    <a:fld id="{0890A5DE-8D62-4ECB-B001-79D0ED38C1CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2667,7 +2667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3476C61D-CA1B-4022-A151-A382DBA03117}" type="CELLRANGE">
+                    <a:fld id="{ED7EDD89-9552-40AF-A0F4-DA575D1498EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2706,7 +2706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D51622A1-0117-4CE9-A6E8-97959B489E61}" type="CELLRANGE">
+                    <a:fld id="{CF740A00-DC77-4B68-8F8C-C4033E11DCD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B2669A1-836C-48FA-AE59-9CAFA9EB803F}" type="CELLRANGE">
+                    <a:fld id="{D1716134-141D-4267-B291-AF1C9904DEAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2771,7 +2771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71FFB280-AE80-4EBE-9BCC-F8CB68ABA87B}" type="CELLRANGE">
+                    <a:fld id="{EFC4E95D-8EB7-466D-915E-A2F6AA961975}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2825,7 +2825,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{2BCF5DB8-6154-4649-9AD9-500FA7464FD5}" type="CELLRANGE">
+                    <a:fld id="{A33D1593-7F0A-4F6A-A440-8DDD02303F1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1400" b="1"/>
@@ -2888,7 +2888,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D0DA864-7D95-48C5-91A1-B3BEDD687BF7}" type="CELLRANGE">
+                    <a:fld id="{96706DD0-C33B-4E56-B724-B7F1D92C0762}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2921,7 +2921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBB62BAC-09BC-4A78-B919-C3EB9A8C9F92}" type="CELLRANGE">
+                    <a:fld id="{2BBCF4B5-245A-49EB-9FAE-637E71C4EDBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2954,7 +2954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D007D73A-3617-4D6E-BCF6-6598A75BC683}" type="CELLRANGE">
+                    <a:fld id="{84AE8CEC-43D6-4D19-B472-E9F15E697331}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3739,7 +3739,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3790,7 +3790,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4026,7 +4026,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4077,7 +4077,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4313,7 +4313,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4364,7 +4364,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4600,7 +4600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4651,7 +4651,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4887,7 +4887,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4938,7 +4938,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5174,7 +5174,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5225,7 +5225,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5283,7 +5283,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5461,7 +5461,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5512,7 +5512,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13411,8 +13411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1631576" y="667140"/>
-          <a:ext cx="10100534" cy="2631872"/>
+          <a:off x="1860176" y="700758"/>
+          <a:ext cx="10100534" cy="2799960"/>
           <a:chOff x="1539240" y="851813"/>
           <a:chExt cx="10210800" cy="2737207"/>
         </a:xfrm>
@@ -13670,13 +13670,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -13685,9 +13685,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1592580" y="3601122"/>
-          <a:ext cx="4244340" cy="1945342"/>
-          <a:chOff x="1508760" y="4141471"/>
+          <a:off x="1821180" y="3825241"/>
+          <a:ext cx="4244340" cy="2057400"/>
+          <a:chOff x="1508760" y="4141472"/>
           <a:chExt cx="4244340" cy="1649730"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -13703,7 +13703,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="1508760" y="4141471"/>
+          <a:off x="1508760" y="4141472"/>
           <a:ext cx="4244340" cy="1649730"/>
         </xdr:xfrm>
         <a:graphic>
@@ -13719,10 +13719,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1861520" y="4265574"/>
-            <a:ext cx="923814" cy="1271823"/>
-            <a:chOff x="2246952" y="4288434"/>
-            <a:chExt cx="1791172" cy="2951597"/>
+            <a:off x="1916940" y="4265575"/>
+            <a:ext cx="923366" cy="1220251"/>
+            <a:chOff x="2354404" y="4288434"/>
+            <a:chExt cx="1790303" cy="2831910"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -13734,8 +13734,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2246952" y="4288434"/>
-              <a:ext cx="1790303" cy="2951597"/>
+              <a:off x="2354404" y="4288434"/>
+              <a:ext cx="1790303" cy="2831910"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13852,8 +13852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6156960" y="3585882"/>
-          <a:ext cx="4244340" cy="1945342"/>
+          <a:off x="6385560" y="3810000"/>
+          <a:ext cx="4244340" cy="2057400"/>
           <a:chOff x="5935980" y="4052640"/>
           <a:chExt cx="4244340" cy="1649730"/>
         </a:xfrm>
@@ -14012,8 +14012,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10736580" y="3581848"/>
-          <a:ext cx="4244340" cy="1941756"/>
+          <a:off x="10965180" y="3794760"/>
+          <a:ext cx="4244340" cy="2065020"/>
           <a:chOff x="6164580" y="5829300"/>
           <a:chExt cx="4244340" cy="1981200"/>
         </a:xfrm>
@@ -14223,8 +14223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1577340" y="5877267"/>
-          <a:ext cx="4244340" cy="2138979"/>
+          <a:off x="1805940" y="6217926"/>
+          <a:ext cx="4244340" cy="2065020"/>
           <a:chOff x="1577340" y="5791200"/>
           <a:chExt cx="4244340" cy="1981200"/>
         </a:xfrm>
@@ -14500,8 +14500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6172200" y="5877267"/>
-          <a:ext cx="4244340" cy="2138979"/>
+          <a:off x="6400800" y="6217926"/>
+          <a:ext cx="4244340" cy="2065020"/>
           <a:chOff x="6172200" y="5791200"/>
           <a:chExt cx="4244340" cy="1981200"/>
         </a:xfrm>
@@ -14960,15 +14960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
+      <xdr:colOff>490615</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>86065</xdr:rowOff>
+      <xdr:rowOff>101305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>207820</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>169361</xdr:rowOff>
+      <xdr:rowOff>126077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14979,8 +14979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2859740" y="6038630"/>
-          <a:ext cx="950259" cy="1661084"/>
+          <a:off x="3149995" y="6166825"/>
+          <a:ext cx="936405" cy="1609732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15031,15 +15031,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:colOff>158106</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>140744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>439271</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>26816</xdr:rowOff>
+      <xdr:colOff>480836</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15050,8 +15050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6822141" y="3726626"/>
-          <a:ext cx="932330" cy="1499719"/>
+          <a:off x="6863706" y="3742926"/>
+          <a:ext cx="932330" cy="1452529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15102,15 +15102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>116542</xdr:colOff>
+      <xdr:colOff>185817</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>131782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>17854</xdr:rowOff>
+      <xdr:colOff>526475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15121,8 +15121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11698942" y="3717664"/>
-          <a:ext cx="950258" cy="1499719"/>
+          <a:off x="11768217" y="3733964"/>
+          <a:ext cx="950258" cy="1447636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15173,15 +15173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>456751</xdr:colOff>
+      <xdr:colOff>526026</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>86063</xdr:rowOff>
+      <xdr:rowOff>101303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:colOff>248569</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>169359</xdr:rowOff>
+      <xdr:rowOff>139931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15192,8 +15192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7771951" y="6038628"/>
-          <a:ext cx="941743" cy="1661084"/>
+          <a:off x="8062206" y="6166823"/>
+          <a:ext cx="941743" cy="1623588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15246,13 +15246,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>129546</xdr:rowOff>
+      <xdr:rowOff>121926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>99066</xdr:rowOff>
+      <xdr:rowOff>91446</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -15261,8 +15261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10728960" y="5884887"/>
-          <a:ext cx="4244340" cy="2138979"/>
+          <a:off x="10957560" y="6217926"/>
+          <a:ext cx="4244340" cy="2065020"/>
           <a:chOff x="10728960" y="5687658"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -15604,8 +15604,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12675646" y="5850369"/>
-            <a:ext cx="941742" cy="1499719"/>
+            <a:off x="12703356" y="5850369"/>
+            <a:ext cx="941742" cy="1457332"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -15741,8 +15741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1615440" y="8334945"/>
-          <a:ext cx="4244340" cy="2138978"/>
+          <a:off x="1844040" y="8588198"/>
+          <a:ext cx="4244340" cy="2071743"/>
           <a:chOff x="1615440" y="7823947"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -16049,8 +16049,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3836894" y="7973658"/>
-                <a:ext cx="932330" cy="1499719"/>
+                <a:off x="3913789" y="8001213"/>
+                <a:ext cx="932330" cy="1445057"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -16271,8 +16271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6178473" y="8334944"/>
-          <a:ext cx="4244340" cy="2138978"/>
+          <a:off x="6407073" y="8588197"/>
+          <a:ext cx="4244340" cy="2071743"/>
           <a:chOff x="6178473" y="7823946"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -16592,8 +16592,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="4141696" y="7973658"/>
-                  <a:ext cx="959224" cy="1499719"/>
+                  <a:off x="4224826" y="8001212"/>
+                  <a:ext cx="959224" cy="1445058"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -16867,8 +16867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10714615" y="8334942"/>
-          <a:ext cx="4244340" cy="2138978"/>
+          <a:off x="10943215" y="8588195"/>
+          <a:ext cx="4244340" cy="2071743"/>
           <a:chOff x="10714615" y="7823944"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -17201,8 +17201,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="4473390" y="7973658"/>
-                    <a:ext cx="923363" cy="1499719"/>
+                    <a:off x="4557905" y="8008100"/>
+                    <a:ext cx="923363" cy="1432288"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -17529,8 +17529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1615440" y="10782308"/>
-          <a:ext cx="4244340" cy="2138979"/>
+          <a:off x="1844040" y="10954879"/>
+          <a:ext cx="4244340" cy="2065020"/>
           <a:chOff x="1615440" y="9948578"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -17876,8 +17876,8 @@
                   </xdr:nvSpPr>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="4776400" y="7973658"/>
-                      <a:ext cx="952045" cy="1499719"/>
+                      <a:off x="4861560" y="7973659"/>
+                      <a:ext cx="928540" cy="1463956"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
                       <a:avLst/>
@@ -17977,8 +17977,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3775934" y="8388724"/>
-                    <a:ext cx="441960" cy="201644"/>
+                    <a:off x="3775933" y="8388725"/>
+                    <a:ext cx="554019" cy="194096"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -18257,8 +18257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6178473" y="10773344"/>
-          <a:ext cx="8810515" cy="2153775"/>
+          <a:off x="6407073" y="10945915"/>
+          <a:ext cx="8810515" cy="2079816"/>
           <a:chOff x="1615440" y="9948578"/>
           <a:chExt cx="4244340" cy="1941755"/>
         </a:xfrm>
@@ -18957,6 +18957,236 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1316182" y="13217236"/>
+          <a:ext cx="13563600" cy="13855"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110836</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14131636" y="12857019"/>
+          <a:ext cx="1233055" cy="249382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1600" b="1">
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Straight Arrow Connector 154"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="3886200"/>
+          <a:ext cx="57150" cy="9563100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="TextBox 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1156856" y="3920838"/>
+          <a:ext cx="1004454" cy="284018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1600" b="1">
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>RETURN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20360,11 +20590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:Y70"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21852,6 +22086,31 @@
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
     </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
